--- a/SuppXLS/Scen_CENY_PALIW.xlsx
+++ b/SuppXLS/Scen_CENY_PALIW.xlsx
@@ -4736,5 +4736,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E45E318E-8098-4E44-841A-C6D98DE1B481}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5020A0C-BCAF-431D-9663-5E773413941C}"/>
 </file>